--- a/iselUssSyncV2/OutputWSL/20220426_1212_D50L474W90Q40U0.48H106G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1212_D50L474W90Q40U0.48H106G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>106.67849206349207</v>
+        <v>106.67942283051302</v>
       </c>
       <c r="F2" s="0">
-        <v>106.54710317460321</v>
+        <v>106.54803394162411</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>106.9971541501976</v>
+        <v>106.99942935847115</v>
       </c>
       <c r="F3" s="0">
-        <v>108.2143083003952</v>
+        <v>108.2165835086688</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>105.75383399209484</v>
+        <v>105.75658492573463</v>
       </c>
       <c r="F4" s="0">
-        <v>110.13652173913044</v>
+        <v>110.13927267277016</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>104.70924302788841</v>
+        <v>104.71204911809237</v>
       </c>
       <c r="F5" s="0">
-        <v>110.6810756972112</v>
+        <v>110.68388178741515</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>103.17194444444442</v>
+        <v>103.17479879664205</v>
       </c>
       <c r="F6" s="0">
-        <v>111.53388888888894</v>
+        <v>111.53674324108655</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>100.51011904761904</v>
+        <v>100.51301476723982</v>
       </c>
       <c r="F7" s="0">
-        <v>110.62361111111117</v>
+        <v>110.62650683073196</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>95.968486055776879</v>
+        <v>95.971416248250307</v>
       </c>
       <c r="F8" s="0">
-        <v>103.91215139442231</v>
+        <v>103.91508158689574</v>
       </c>
     </row>
     <row r="9">
@@ -262,10 +262,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>93.464801587301608</v>
+        <v>93.467743638436318</v>
       </c>
       <c r="F9" s="0">
-        <v>96.387936507936502</v>
+        <v>96.390878559071254</v>
       </c>
     </row>
     <row r="10">
@@ -282,7 +282,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>90.467817460317448</v>
+        <v>90.470770266982214</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -300,7 +300,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>87.390515873015858</v>
+        <v>87.393478332079312</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -318,7 +318,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>85.641150793650795</v>
+        <v>85.64411766523942</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -336,7 +336,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>83.801428571428588</v>
+        <v>83.804399579759519</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -354,7 +354,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>82.084761904761876</v>
+        <v>82.087736774052331</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -372,7 +372,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>80.592151394422302</v>
+        <v>80.5951298488894</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -390,7 +390,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>77.113784860557786</v>
+        <v>77.116769658029767</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -408,10 +408,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>73.884206349206352</v>
+        <v>73.887196386551963</v>
       </c>
       <c r="F17" s="0">
-        <v>40.789603174603172</v>
+        <v>40.79259321194877</v>
       </c>
     </row>
     <row r="18">
@@ -428,10 +428,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>70.687171314741036</v>
+        <v>70.690165488828939</v>
       </c>
       <c r="F18" s="0">
-        <v>39.10326693227092</v>
+        <v>39.106261106358822</v>
       </c>
     </row>
     <row r="19">
@@ -448,10 +448,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>64.761547619047633</v>
+        <v>64.764546757226285</v>
       </c>
       <c r="F19" s="0">
-        <v>38.800039682539683</v>
+        <v>38.803038820718378</v>
       </c>
     </row>
     <row r="20">
@@ -468,10 +468,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>58.146825396825427</v>
+        <v>58.149824535004079</v>
       </c>
       <c r="F20" s="0">
-        <v>40.638968253968258</v>
+        <v>40.641967392146938</v>
       </c>
     </row>
     <row r="21">
@@ -488,10 +488,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>52.67031746031747</v>
+        <v>52.673309703925604</v>
       </c>
       <c r="F21" s="0">
-        <v>44.810277777777785</v>
+        <v>44.813270021385932</v>
       </c>
     </row>
     <row r="22">
@@ -508,10 +508,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>48.121984126984117</v>
+        <v>48.124962581451221</v>
       </c>
       <c r="F22" s="0">
-        <v>53.256388888888893</v>
+        <v>53.25936734335599</v>
       </c>
     </row>
     <row r="23">
@@ -528,10 +528,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>44.755577689243033</v>
+        <v>44.758535459998555</v>
       </c>
       <c r="F23" s="0">
-        <v>63.583585657370513</v>
+        <v>63.586543428126042</v>
       </c>
     </row>
     <row r="24">
@@ -548,10 +548,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>41.346454183266943</v>
+        <v>41.349349902887731</v>
       </c>
       <c r="F24" s="0">
-        <v>73.805099601593625</v>
+        <v>73.807995321214435</v>
       </c>
     </row>
     <row r="25">
@@ -568,10 +568,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>42.430595238095229</v>
+        <v>42.433401328299205</v>
       </c>
       <c r="F25" s="0">
-        <v>65.788809523809519</v>
+        <v>65.79161561401348</v>
       </c>
     </row>
     <row r="26">
@@ -588,10 +588,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>52.738412698412695</v>
+        <v>52.741101580917721</v>
       </c>
       <c r="F26" s="0">
-        <v>55.196944444444433</v>
+        <v>55.19963332694946</v>
       </c>
     </row>
     <row r="27">
@@ -608,10 +608,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>76.719087301587294</v>
+        <v>76.721631398111271</v>
       </c>
       <c r="F27" s="0">
-        <v>51.775833333333338</v>
+        <v>51.778377429857329</v>
       </c>
     </row>
     <row r="28">
@@ -628,10 +628,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>73.586507936507914</v>
+        <v>73.588879668768783</v>
       </c>
       <c r="F28" s="0">
-        <v>57.65448412698413</v>
+        <v>57.65685585924497</v>
       </c>
     </row>
     <row r="29">
@@ -648,10 +648,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>55.077063492063488</v>
+        <v>55.079235281779077</v>
       </c>
       <c r="F29" s="0">
-        <v>74.757976190476185</v>
+        <v>74.760147980191803</v>
       </c>
     </row>
     <row r="30">
@@ -668,10 +668,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>84.34329365079364</v>
+        <v>84.344982820572454</v>
       </c>
       <c r="F30" s="0">
-        <v>65.933611111111119</v>
+        <v>65.935300280889919</v>
       </c>
     </row>
   </sheetData>
